--- a/Hoàng/2025/T4/MÔI TRƯỜNG VIỆT TIẾN & LIÊN DOANH MÔI TRƯỜNG ĐA NĂNG (59 59.1 -2025)/ĐA NĂNG/BẢNG KÊ CHI TIẾT.xlsx
+++ b/Hoàng/2025/T4/MÔI TRƯỜNG VIỆT TIẾN & LIÊN DOANH MÔI TRƯỜNG ĐA NĂNG (59 59.1 -2025)/ĐA NĂNG/BẢNG KÊ CHI TIẾT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DATA-TN\Hoàng\2025\MÔI TRƯỜNG VIỆT TIẾN &amp; LIÊN DOANH MÔI TRƯỜNG ĐA NĂNG (59 59.1 -2025)\ĐA NĂNG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DATA-TN\Hoàng\2025\T4\MÔI TRƯỜNG VIỆT TIẾN &amp; LIÊN DOANH MÔI TRƯỜNG ĐA NĂNG (59 59.1 -2025)\ĐA NĂNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F382C2FE-2D7E-46FF-9A19-2D4A7CE5615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FADE357-39DB-47E2-AB92-074199147991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AT10" sqref="AT10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AX6" sqref="AX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
